--- a/kicad-library.xlsx
+++ b/kicad-library.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t xml:space="preserve">function</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">lora concentrator</t>
   </si>
   <si>
-    <t xml:space="preserve">modulo</t>
+    <t xml:space="preserve">module</t>
   </si>
   <si>
     <t xml:space="preserve">LoRaWAN1301</t>
@@ -106,16 +106,13 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">diferente para ca (tem mais de 1 pc104)</t>
+    <t xml:space="preserve">different from board to board</t>
   </si>
   <si>
     <t xml:space="preserve">crystal</t>
   </si>
   <si>
     <t xml:space="preserve">ECS-80-10-33-CHN-TR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image sensor connetor</t>
   </si>
 </sst>
 </file>
@@ -314,10 +311,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.87"/>
@@ -767,12 +764,8 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
